--- a/biology/Médecine/Cyphose/Cyphose.xlsx
+++ b/biology/Médecine/Cyphose/Cyphose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cyphose (du grec ancien  κύφος  [kúphos], « bossu ») est une courbe convexe décrite par la colonne vertébrale dans le plan sagittal. Elle s'oppose à la lordose, où la colonne décrit une courbe concave.
-Chez l'homme la colonne vertébrale a quatre courbures naturelles : la lordose cervicale (aspect creusé du cou), suivie de la cyphose thoracique (la bosse du dos), puis la lordose lombaire (creux en bas du dos), enfin la cyphose sacrale/coccygienne. Cette dernière est fixe. Une mauvaise posture se traduit par des modifications des courbes décrites par la colonne : des vertèbres en lordose peuvent décrire une cyphose et le terme désigne alors un état pathologique[1].
+Chez l'homme la colonne vertébrale a quatre courbures naturelles : la lordose cervicale (aspect creusé du cou), suivie de la cyphose thoracique (la bosse du dos), puis la lordose lombaire (creux en bas du dos), enfin la cyphose sacrale/coccygienne. Cette dernière est fixe. Une mauvaise posture se traduit par des modifications des courbes décrites par la colonne : des vertèbres en lordose peuvent décrire une cyphose et le terme désigne alors un état pathologique.
 L’hypercyphose est une exagération de la cyphose thoracique. Elle est par abus de langage appelée cyphose. 
 L’attitude cyphotique (personne avec un dos arrondi mais qui peut se tenir droite si on le lui demande) est à différencier de la cyphose irréductible. Cette personne est généralement, dans la langue populaire, décrite comme bossue.
 </t>
@@ -514,64 +526,241 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La cyphose peut être due à différentes causes :
-Cyphose naturelle
-La colonne vertébrale du fœtus et du nourrisson ne présente qu'une seule courbure concave vers l'avant (cyphose générale). La lordose cervicale se développe par l'action des muscles de la nuque durant le développement moteur de l'enfant (à environ trois mois) lorsqu'il commence à marcher à quatre pattes et qu'il relève la tête afin d'assurer l'horizontalité du regard qui lui permet de regarder où il va. Lors de l'apprentissage de la position assise, de la position debout, et de la marche vers douze mois, se développe la lordose lombaire sous l'action des muscles postérieurs de la colonne et du bassin (le passage à la bipédie se traduisant par un redressement du rachis lombaire et une verticalisation du sacrum), ce qui a pour effet de reporter le centre de gravité vers l'arrière[2]. La cyphose dorsale ou thoracique (donnant la bosse du dos) et la cyphose sacrococcygienne qui s'accentuent progressivement lors du développement et donnent au nouveau-né l'allure arquée d'un quadrupède, sont appelées courbures primaires car elles conservent la forme de la courbure de la colonne vertébrale embryonnaire. La lordose cervicale et la lordose lombaire sont des courbures secondaires qui assurent la stabilité et le contrôle de l'équilibre rachidien[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cyphose peut être due à différentes causes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cyphose</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyphose</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cyphose naturelle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La colonne vertébrale du fœtus et du nourrisson ne présente qu'une seule courbure concave vers l'avant (cyphose générale). La lordose cervicale se développe par l'action des muscles de la nuque durant le développement moteur de l'enfant (à environ trois mois) lorsqu'il commence à marcher à quatre pattes et qu'il relève la tête afin d'assurer l'horizontalité du regard qui lui permet de regarder où il va. Lors de l'apprentissage de la position assise, de la position debout, et de la marche vers douze mois, se développe la lordose lombaire sous l'action des muscles postérieurs de la colonne et du bassin (le passage à la bipédie se traduisant par un redressement du rachis lombaire et une verticalisation du sacrum), ce qui a pour effet de reporter le centre de gravité vers l'arrière. La cyphose dorsale ou thoracique (donnant la bosse du dos) et la cyphose sacrococcygienne qui s'accentuent progressivement lors du développement et donnent au nouveau-né l'allure arquée d'un quadrupède, sont appelées courbures primaires car elles conservent la forme de la courbure de la colonne vertébrale embryonnaire. La lordose cervicale et la lordose lombaire sont des courbures secondaires qui assurent la stabilité et le contrôle de l'équilibre rachidien. 
 La présence de la crosse aortique, ou une faible inégalité de longueur des membres inférieurs ont été invoquées comme origine de la très légère scoliose physiologique à convexité droite, dont le sommet est situé dans la région thoracique haute.
 En effet, une différence de développement des membres inférieurs est peut-être due à la latéralisation. Celle-ci ne concerne pas seulement l'habileté manuelle, mais le corps entier et même l'usage des yeux. Or dans la marche, il y a toujours un pas plus long que l'autre.
 Comme la plus grande partie de la population est droitière, il semble normal que cette scoliose soit presque toujours du même côté.
 Par contre, pratiquement aucune scoliose idiopathique n'est observée parmi les populations où le port sur la tête est habituel.
-Mauvaise posture
-La personne ne se tient pas de manière érigée. Ce sont souvent des attitudes cyphotiques mais elles peuvent s'enraidir petit à petit si la personne continue à se tenir mal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cyphose</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyphose</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mauvaise posture</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La personne ne se tient pas de manière érigée. Ce sont souvent des attitudes cyphotiques mais elles peuvent s'enraidir petit à petit si la personne continue à se tenir mal.
 Terrain : hyperlaxité articulaire et hypotonie musculaire.
 Ce déficit postural disparaît en position couchée.
-Il est favorisé par un retard de maturation neuro-motrice.
-Maladie de Scheuermann
-La maladie de Scheuermann est la cause la plus fréquente de cyphose chez les personnes en période de croissance. Elle est retrouvée surtout chez les adolescents qui se tiennent mal ou qui effectuent des travaux lourds.
-Hypercyphose essentielle de Stagnara
-L'hypercyphose essentielle de Stagnara ou « hypercyphose régulière » se caractérise par : 
+Il est favorisé par un retard de maturation neuro-motrice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cyphose</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyphose</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Maladie de Scheuermann</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maladie de Scheuermann est la cause la plus fréquente de cyphose chez les personnes en période de croissance. Elle est retrouvée surtout chez les adolescents qui se tiennent mal ou qui effectuent des travaux lourds.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cyphose</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyphose</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hypercyphose essentielle de Stagnara</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'hypercyphose essentielle de Stagnara ou « hypercyphose régulière » se caractérise par : 
 une courbure thoracique à grand rayon ;
 notion d'aggravation en période pubertaire (comme pour la scoliose idiopathique) ;
-douloureuse.
-Autres causes
-Malformations vertébrales
+douloureuse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cyphose</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyphose</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres causes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Malformations vertébrales
 Spondylose rhizomélique (spondylarthrite ankylosante)
 Hypercyphoses angulaires (mal de Pott, spondylodiscite, tumeur vertébrale, granulome éosinophile...)
 Atteintes neurologiques
 Maladie de Paget
 Syndrome d'Ehlers-Danlos type cypho-scoliotique (type VI)
-une obstruction nasale[4]
-la respiration par la bouche[5]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+une obstruction nasale
+la respiration par la bouche</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Cyphose</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cyphose</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Kinésithérapie
 Musculation
@@ -581,36 +770,38 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Cyphose</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cyphose</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Conséquences</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Douleurs causées par des crises cyphotiques
 Dos courbé sans pouvoir se redresser
 Diminution de la compliance respiratoire
-La cyphose entraine un déclin de la capacité pulmonaire[6].</t>
+La cyphose entraine un déclin de la capacité pulmonaire.</t>
         </is>
       </c>
     </row>
